--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.565510433430599</v>
+        <v>0.6992243333333333</v>
       </c>
       <c r="H2">
-        <v>0.565510433430599</v>
+        <v>2.097673</v>
       </c>
       <c r="I2">
-        <v>0.6411516440724928</v>
+        <v>0.6611310633483093</v>
       </c>
       <c r="J2">
-        <v>0.6411516440724928</v>
+        <v>0.6611310633483093</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.36175898593829</v>
+        <v>135.955556</v>
       </c>
       <c r="N2">
-        <v>94.36175898593829</v>
+        <v>407.866668</v>
       </c>
       <c r="O2">
-        <v>0.6356050738128274</v>
+        <v>0.6947679994035034</v>
       </c>
       <c r="P2">
-        <v>0.6356050738128274</v>
+        <v>0.6947679994035034</v>
       </c>
       <c r="Q2">
-        <v>53.36255922341169</v>
+        <v>95.06343300706267</v>
       </c>
       <c r="R2">
-        <v>53.36255922341169</v>
+        <v>855.570897063564</v>
       </c>
       <c r="S2">
-        <v>0.4075192380559124</v>
+        <v>0.4593327062260157</v>
       </c>
       <c r="T2">
-        <v>0.4075192380559124</v>
+        <v>0.4593327062260157</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.565510433430599</v>
+        <v>0.6992243333333333</v>
       </c>
       <c r="H3">
-        <v>0.565510433430599</v>
+        <v>2.097673</v>
       </c>
       <c r="I3">
-        <v>0.6411516440724928</v>
+        <v>0.6611310633483093</v>
       </c>
       <c r="J3">
-        <v>0.6411516440724928</v>
+        <v>0.6611310633483093</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>51.878142231875</v>
+        <v>0.449122</v>
       </c>
       <c r="N3">
-        <v>51.878142231875</v>
+        <v>1.347366</v>
       </c>
       <c r="O3">
-        <v>0.3494425154524411</v>
+        <v>0.002295129398228494</v>
       </c>
       <c r="P3">
-        <v>0.3494425154524411</v>
+        <v>0.002295129398228494</v>
       </c>
       <c r="Q3">
-        <v>29.3376306991219</v>
+        <v>0.3140370310353334</v>
       </c>
       <c r="R3">
-        <v>29.3376306991219</v>
+        <v>2.826333279318</v>
       </c>
       <c r="S3">
-        <v>0.2240456432911601</v>
+        <v>0.001517381339572769</v>
       </c>
       <c r="T3">
-        <v>0.2240456432911601</v>
+        <v>0.001517381339572769</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.565510433430599</v>
+        <v>0.6992243333333333</v>
       </c>
       <c r="H4">
-        <v>0.565510433430599</v>
+        <v>2.097673</v>
       </c>
       <c r="I4">
-        <v>0.6411516440724928</v>
+        <v>0.6611310633483093</v>
       </c>
       <c r="J4">
-        <v>0.6411516440724928</v>
+        <v>0.6611310633483093</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.21983089207526</v>
+        <v>56.38366533333333</v>
       </c>
       <c r="N4">
-        <v>2.21983089207526</v>
+        <v>169.150996</v>
       </c>
       <c r="O4">
-        <v>0.0149524107347315</v>
+        <v>0.2881350899898248</v>
       </c>
       <c r="P4">
-        <v>0.0149524107347315</v>
+        <v>0.2881350899898248</v>
       </c>
       <c r="Q4">
-        <v>1.255337529920113</v>
+        <v>39.42483080358978</v>
       </c>
       <c r="R4">
-        <v>1.255337529920113</v>
+        <v>354.823477232308</v>
       </c>
       <c r="S4">
-        <v>0.009586762725420288</v>
+        <v>0.1904950584329337</v>
       </c>
       <c r="T4">
-        <v>0.009586762725420288</v>
+        <v>0.1904950584329337</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.316512468107276</v>
+        <v>0.6992243333333333</v>
       </c>
       <c r="H5">
-        <v>0.316512468107276</v>
+        <v>2.097673</v>
       </c>
       <c r="I5">
-        <v>0.3588483559275072</v>
+        <v>0.6611310633483093</v>
       </c>
       <c r="J5">
-        <v>0.3588483559275072</v>
+        <v>0.6611310633483093</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>94.36175898593829</v>
+        <v>2.896484</v>
       </c>
       <c r="N5">
-        <v>94.36175898593829</v>
+        <v>8.689451999999999</v>
       </c>
       <c r="O5">
-        <v>0.6356050738128274</v>
+        <v>0.01480178120844327</v>
       </c>
       <c r="P5">
-        <v>0.6356050738128274</v>
+        <v>0.01480178120844327</v>
       </c>
       <c r="Q5">
-        <v>29.86667323158326</v>
+        <v>2.025292093910666</v>
       </c>
       <c r="R5">
-        <v>29.86667323158326</v>
+        <v>18.227628845196</v>
       </c>
       <c r="S5">
-        <v>0.228085835756915</v>
+        <v>0.009785917349787123</v>
       </c>
       <c r="T5">
-        <v>0.228085835756915</v>
+        <v>0.009785917349787123</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -782,49 +782,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.316512468107276</v>
+        <v>0.01751533333333333</v>
       </c>
       <c r="H6">
-        <v>0.316512468107276</v>
+        <v>0.052546</v>
       </c>
       <c r="I6">
-        <v>0.3588483559275072</v>
+        <v>0.01656110978913313</v>
       </c>
       <c r="J6">
-        <v>0.3588483559275072</v>
+        <v>0.01656110978913313</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.878142231875</v>
+        <v>135.955556</v>
       </c>
       <c r="N6">
-        <v>51.878142231875</v>
+        <v>407.866668</v>
       </c>
       <c r="O6">
-        <v>0.3494425154524411</v>
+        <v>0.6947679994035034</v>
       </c>
       <c r="P6">
-        <v>0.3494425154524411</v>
+        <v>0.6947679994035034</v>
       </c>
       <c r="Q6">
-        <v>16.42007883863107</v>
+        <v>2.381306881858667</v>
       </c>
       <c r="R6">
-        <v>16.42007883863107</v>
+        <v>21.431761936728</v>
       </c>
       <c r="S6">
-        <v>0.125396872161281</v>
+        <v>0.0115061291160978</v>
       </c>
       <c r="T6">
-        <v>0.125396872161281</v>
+        <v>0.0115061291160978</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.01751533333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.052546</v>
+      </c>
+      <c r="I7">
+        <v>0.01656110978913313</v>
+      </c>
+      <c r="J7">
+        <v>0.01656110978913313</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.449122</v>
+      </c>
+      <c r="N7">
+        <v>1.347366</v>
+      </c>
+      <c r="O7">
+        <v>0.002295129398228494</v>
+      </c>
+      <c r="P7">
+        <v>0.002295129398228494</v>
+      </c>
+      <c r="Q7">
+        <v>0.007866521537333334</v>
+      </c>
+      <c r="R7">
+        <v>0.070798693836</v>
+      </c>
+      <c r="S7">
+        <v>3.800988994432914E-05</v>
+      </c>
+      <c r="T7">
+        <v>3.800988994432914E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.01751533333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.052546</v>
+      </c>
+      <c r="I8">
+        <v>0.01656110978913313</v>
+      </c>
+      <c r="J8">
+        <v>0.01656110978913313</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>56.38366533333333</v>
+      </c>
+      <c r="N8">
+        <v>169.150996</v>
+      </c>
+      <c r="O8">
+        <v>0.2881350899898248</v>
+      </c>
+      <c r="P8">
+        <v>0.2881350899898248</v>
+      </c>
+      <c r="Q8">
+        <v>0.9875786928684445</v>
+      </c>
+      <c r="R8">
+        <v>8.888208235816</v>
+      </c>
+      <c r="S8">
+        <v>0.004771836859423244</v>
+      </c>
+      <c r="T8">
+        <v>0.004771836859423243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.01751533333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.052546</v>
+      </c>
+      <c r="I9">
+        <v>0.01656110978913313</v>
+      </c>
+      <c r="J9">
+        <v>0.01656110978913313</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.896484</v>
+      </c>
+      <c r="N9">
+        <v>8.689451999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.01480178120844327</v>
+      </c>
+      <c r="P9">
+        <v>0.01480178120844327</v>
+      </c>
+      <c r="Q9">
+        <v>0.05073288275466666</v>
+      </c>
+      <c r="R9">
+        <v>0.456595944792</v>
+      </c>
+      <c r="S9">
+        <v>0.0002451339236677567</v>
+      </c>
+      <c r="T9">
+        <v>0.0002451339236677567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3408786666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.022636</v>
+      </c>
+      <c r="I10">
+        <v>0.3223078268625576</v>
+      </c>
+      <c r="J10">
+        <v>0.3223078268625575</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>135.955556</v>
+      </c>
+      <c r="N10">
+        <v>407.866668</v>
+      </c>
+      <c r="O10">
+        <v>0.6947679994035034</v>
+      </c>
+      <c r="P10">
+        <v>0.6947679994035034</v>
+      </c>
+      <c r="Q10">
+        <v>46.34434865520534</v>
+      </c>
+      <c r="R10">
+        <v>417.099137896848</v>
+      </c>
+      <c r="S10">
+        <v>0.2239291640613899</v>
+      </c>
+      <c r="T10">
+        <v>0.2239291640613899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3408786666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.022636</v>
+      </c>
+      <c r="I11">
+        <v>0.3223078268625576</v>
+      </c>
+      <c r="J11">
+        <v>0.3223078268625575</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.449122</v>
+      </c>
+      <c r="N11">
+        <v>1.347366</v>
+      </c>
+      <c r="O11">
+        <v>0.002295129398228494</v>
+      </c>
+      <c r="P11">
+        <v>0.002295129398228494</v>
+      </c>
+      <c r="Q11">
+        <v>0.1530961085306667</v>
+      </c>
+      <c r="R11">
+        <v>1.377864976776</v>
+      </c>
+      <c r="S11">
+        <v>0.0007397381687113954</v>
+      </c>
+      <c r="T11">
+        <v>0.0007397381687113952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.316512468107276</v>
-      </c>
-      <c r="H7">
-        <v>0.316512468107276</v>
-      </c>
-      <c r="I7">
-        <v>0.3588483559275072</v>
-      </c>
-      <c r="J7">
-        <v>0.3588483559275072</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.21983089207526</v>
-      </c>
-      <c r="N7">
-        <v>2.21983089207526</v>
-      </c>
-      <c r="O7">
-        <v>0.0149524107347315</v>
-      </c>
-      <c r="P7">
-        <v>0.0149524107347315</v>
-      </c>
-      <c r="Q7">
-        <v>0.7026041544315167</v>
-      </c>
-      <c r="R7">
-        <v>0.7026041544315167</v>
-      </c>
-      <c r="S7">
-        <v>0.005365648009311207</v>
-      </c>
-      <c r="T7">
-        <v>0.005365648009311207</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3408786666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.022636</v>
+      </c>
+      <c r="I12">
+        <v>0.3223078268625576</v>
+      </c>
+      <c r="J12">
+        <v>0.3223078268625575</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>56.38366533333333</v>
+      </c>
+      <c r="N12">
+        <v>169.150996</v>
+      </c>
+      <c r="O12">
+        <v>0.2881350899898248</v>
+      </c>
+      <c r="P12">
+        <v>0.2881350899898248</v>
+      </c>
+      <c r="Q12">
+        <v>19.21998866060623</v>
+      </c>
+      <c r="R12">
+        <v>172.979897945456</v>
+      </c>
+      <c r="S12">
+        <v>0.09286819469746792</v>
+      </c>
+      <c r="T12">
+        <v>0.09286819469746789</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3408786666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.022636</v>
+      </c>
+      <c r="I13">
+        <v>0.3223078268625576</v>
+      </c>
+      <c r="J13">
+        <v>0.3223078268625575</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.896484</v>
+      </c>
+      <c r="N13">
+        <v>8.689451999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.01480178120844327</v>
+      </c>
+      <c r="P13">
+        <v>0.01480178120844327</v>
+      </c>
+      <c r="Q13">
+        <v>0.9873496039413333</v>
+      </c>
+      <c r="R13">
+        <v>8.886146435472</v>
+      </c>
+      <c r="S13">
+        <v>0.004770729934988393</v>
+      </c>
+      <c r="T13">
+        <v>0.004770729934988392</v>
       </c>
     </row>
   </sheetData>
